--- a/data/data_clean/2019/GNB2019_bgt_exps.xlsx
+++ b/data/data_clean/2019/GNB2019_bgt_exps.xlsx
@@ -1004,7 +1004,7 @@
         <v>25111970</v>
       </c>
       <c r="P5" s="3">
-        <v>0</v>
+        <v>50223940</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1054,7 +1054,7 @@
         <v>14253139</v>
       </c>
       <c r="P6" s="3">
-        <v>0</v>
+        <v>28506278</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1104,7 +1104,7 @@
         <v>5716131</v>
       </c>
       <c r="P7" s="3">
-        <v>0</v>
+        <v>11432262</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1154,7 +1154,7 @@
         <v>56488232</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>112976464</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1204,7 +1204,7 @@
         <v>34320084</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>68640168</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1254,7 +1254,7 @@
         <v>34976767</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>69953534</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1754,7 +1754,7 @@
         <v>24916144</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>49832288</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1804,7 +1804,7 @@
         <v>29416074</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>58832148</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1854,7 +1854,7 @@
         <v>17840000</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>35680000</v>
       </c>
     </row>
     <row r="23" spans="1:16">
